--- a/tmap/tMap_1.xlsx
+++ b/tmap/tMap_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\talend\tmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511B13D0-1EF5-4C90-B9CA-D04CB3A64D74}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F5CB13-AA96-491D-866C-91FDF5A8FA40}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -433,7 +433,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
